--- a/docentes/Ochoa Martínez Mayeli Estadisticos 2020.xlsx
+++ b/docentes/Ochoa Martínez Mayeli Estadisticos 2020.xlsx
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1150,7 +1150,7 @@
         <v>9</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1173,7 +1173,7 @@
         <v>9</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1219,7 +1219,7 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1242,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1265,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
